--- a/Code/Results/Cases/Case_4_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9974664954181662</v>
+        <v>0.8491011808501696</v>
       </c>
       <c r="C2">
-        <v>0.08430378304750974</v>
+        <v>0.04467913352849706</v>
       </c>
       <c r="D2">
-        <v>0.2651434515664874</v>
+        <v>0.500737560853068</v>
       </c>
       <c r="E2">
-        <v>0.06162270992097696</v>
+        <v>0.1574281767461958</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008385722171827854</v>
+        <v>0.002544653869563485</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6543704967857771</v>
+        <v>1.519282554190269</v>
       </c>
       <c r="J2">
-        <v>0.02624817302542226</v>
+        <v>0.05803402912153022</v>
       </c>
       <c r="K2">
-        <v>0.8808691287048305</v>
+        <v>0.5378763956628632</v>
       </c>
       <c r="L2">
-        <v>0.2259686571143718</v>
+        <v>0.4346228824781164</v>
       </c>
       <c r="M2">
-        <v>0.2399978200219657</v>
+        <v>0.2933735593118598</v>
       </c>
       <c r="N2">
-        <v>1.30368360987941</v>
+        <v>2.792936057651859</v>
       </c>
       <c r="O2">
-        <v>2.940789083204862</v>
+        <v>6.522228300717671</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8751906462555894</v>
+        <v>0.8186103464885832</v>
       </c>
       <c r="C3">
-        <v>0.07640147851483903</v>
+        <v>0.04205291901339336</v>
       </c>
       <c r="D3">
-        <v>0.2498599619692641</v>
+        <v>0.4993420319151767</v>
       </c>
       <c r="E3">
-        <v>0.060860151925338</v>
+        <v>0.1579034730284459</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008424724414027067</v>
+        <v>0.002547282046846016</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.657010072851218</v>
+        <v>1.527692481185589</v>
       </c>
       <c r="J3">
-        <v>0.02608123247781435</v>
+        <v>0.05797511702315372</v>
       </c>
       <c r="K3">
-        <v>0.7669338301799655</v>
+        <v>0.5075410874301269</v>
       </c>
       <c r="L3">
-        <v>0.2117124494260096</v>
+        <v>0.4330334067178541</v>
       </c>
       <c r="M3">
-        <v>0.2144782996068244</v>
+        <v>0.2878235080860456</v>
       </c>
       <c r="N3">
-        <v>1.354879752779127</v>
+        <v>2.815478194351568</v>
       </c>
       <c r="O3">
-        <v>2.916599654654419</v>
+        <v>6.551025228641151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8005750269381622</v>
+        <v>0.8002274915249927</v>
       </c>
       <c r="C4">
-        <v>0.07154233921107789</v>
+        <v>0.04042203794264765</v>
       </c>
       <c r="D4">
-        <v>0.2407587255908084</v>
+        <v>0.4986789552701936</v>
       </c>
       <c r="E4">
-        <v>0.06044925555664804</v>
+        <v>0.1582388360435232</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008449512555858409</v>
+        <v>0.00254898365746222</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6595125078709678</v>
+        <v>1.533392317450126</v>
       </c>
       <c r="J4">
-        <v>0.02597993320852066</v>
+        <v>0.05793877849605966</v>
       </c>
       <c r="K4">
-        <v>0.6972882469326152</v>
+        <v>0.4891135300305649</v>
       </c>
       <c r="L4">
-        <v>0.20318065120005</v>
+        <v>0.4322161356690515</v>
       </c>
       <c r="M4">
-        <v>0.1989722584442895</v>
+        <v>0.284534262075038</v>
       </c>
       <c r="N4">
-        <v>1.387604055834757</v>
+        <v>2.830030724159098</v>
       </c>
       <c r="O4">
-        <v>2.905911149217388</v>
+        <v>6.571191189803159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7702726492201464</v>
+        <v>0.7928221302171323</v>
       </c>
       <c r="C5">
-        <v>0.06955955467204689</v>
+        <v>0.03975282724029938</v>
       </c>
       <c r="D5">
-        <v>0.237118014633225</v>
+        <v>0.4984576050388938</v>
       </c>
       <c r="E5">
-        <v>0.06029589061003904</v>
+        <v>0.1583864718586465</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008459828496049034</v>
+        <v>0.002549699245461667</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6607473832363802</v>
+        <v>1.535850007852584</v>
       </c>
       <c r="J5">
-        <v>0.02593892587563307</v>
+        <v>0.05792392875858798</v>
       </c>
       <c r="K5">
-        <v>0.6689740446312413</v>
+        <v>0.4816545583144602</v>
       </c>
       <c r="L5">
-        <v>0.1997570647593321</v>
+        <v>0.4319231105920807</v>
       </c>
       <c r="M5">
-        <v>0.19269143136259</v>
+        <v>0.2832238185839131</v>
       </c>
       <c r="N5">
-        <v>1.401258118204105</v>
+        <v>2.836140026388657</v>
       </c>
       <c r="O5">
-        <v>2.902566478667126</v>
+        <v>6.580034447044056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7652469064665581</v>
+        <v>0.7915976768595385</v>
       </c>
       <c r="C6">
-        <v>0.06923013073139828</v>
+        <v>0.03964142688354855</v>
       </c>
       <c r="D6">
-        <v>0.236517505867468</v>
+        <v>0.4984238047933758</v>
       </c>
       <c r="E6">
-        <v>0.06027126531117233</v>
+        <v>0.158411650186542</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008461554501239625</v>
+        <v>0.00254981940928506</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6609652383485596</v>
+        <v>1.536266261264782</v>
       </c>
       <c r="J6">
-        <v>0.02593213229682245</v>
+        <v>0.05792146047484437</v>
       </c>
       <c r="K6">
-        <v>0.6642762166863605</v>
+        <v>0.4804190611623227</v>
       </c>
       <c r="L6">
-        <v>0.1991917219317401</v>
+        <v>0.4318768746057771</v>
       </c>
       <c r="M6">
-        <v>0.1916507160530898</v>
+        <v>0.2830080338546921</v>
       </c>
       <c r="N6">
-        <v>1.403544449935017</v>
+        <v>2.837165287177649</v>
       </c>
       <c r="O6">
-        <v>2.902071137378073</v>
+        <v>6.581540660573921</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8001659526009632</v>
+        <v>0.8001272719677957</v>
       </c>
       <c r="C7">
-        <v>0.07151561050321931</v>
+        <v>0.04041303140369479</v>
       </c>
       <c r="D7">
-        <v>0.2407093537733118</v>
+        <v>0.4986757720621711</v>
       </c>
       <c r="E7">
-        <v>0.06044713064972029</v>
+        <v>0.1582407826479688</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008449650808067023</v>
+        <v>0.002548993218106967</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6595282993488745</v>
+        <v>1.533424916069492</v>
       </c>
       <c r="J7">
-        <v>0.02597937910187387</v>
+        <v>0.05793857839507055</v>
       </c>
       <c r="K7">
-        <v>0.6969061351797308</v>
+        <v>0.4890127309594021</v>
       </c>
       <c r="L7">
-        <v>0.2031342673966563</v>
+        <v>0.4322120216333616</v>
       </c>
       <c r="M7">
-        <v>0.1988874029512679</v>
+        <v>0.2845164675048295</v>
       </c>
       <c r="N7">
-        <v>1.387786916385007</v>
+        <v>2.830112391336757</v>
       </c>
       <c r="O7">
-        <v>2.905861994795799</v>
+        <v>6.571307919644624</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9552023041190125</v>
+        <v>0.8385180335322389</v>
       </c>
       <c r="C8">
-        <v>0.08158000395625464</v>
+        <v>0.04377743199422213</v>
       </c>
       <c r="D8">
-        <v>0.2598131262042642</v>
+        <v>0.5002162393951579</v>
       </c>
       <c r="E8">
-        <v>0.06134767739916036</v>
+        <v>0.1575830404477436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008398997639885719</v>
+        <v>0.002545541860525148</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6550935486602505</v>
+        <v>1.522071118853948</v>
       </c>
       <c r="J8">
-        <v>0.02619034383828023</v>
+        <v>0.05801375090902283</v>
       </c>
       <c r="K8">
-        <v>0.8415126386949225</v>
+        <v>0.5273758881635899</v>
       </c>
       <c r="L8">
-        <v>0.2210055669715913</v>
+        <v>0.4340419690267154</v>
       </c>
       <c r="M8">
-        <v>0.2311629952799841</v>
+        <v>0.2914353936967622</v>
       </c>
       <c r="N8">
-        <v>1.321064893135787</v>
+        <v>2.800560962215732</v>
       </c>
       <c r="O8">
-        <v>2.931562094885635</v>
+        <v>6.531642236888018</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.263489656992306</v>
+        <v>0.9164651693581334</v>
       </c>
       <c r="C9">
-        <v>0.1013022485865349</v>
+        <v>0.05022918302607593</v>
       </c>
       <c r="D9">
-        <v>0.2996653068856006</v>
+        <v>0.5047695650459332</v>
       </c>
       <c r="E9">
-        <v>0.06358444351380044</v>
+        <v>0.1566374563727546</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008306185016326867</v>
+        <v>0.002539468234520856</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6537070882955547</v>
+        <v>1.504053701418307</v>
       </c>
       <c r="J9">
-        <v>0.02661504196614128</v>
+        <v>0.05815983788212709</v>
       </c>
       <c r="K9">
-        <v>1.128107348125866</v>
+        <v>0.6041623270315597</v>
       </c>
       <c r="L9">
-        <v>0.2579311639100439</v>
+        <v>0.4388847917768857</v>
       </c>
       <c r="M9">
-        <v>0.2958945618758548</v>
+        <v>0.3059379930968902</v>
       </c>
       <c r="N9">
-        <v>1.200720639257153</v>
+        <v>2.748251384547864</v>
       </c>
       <c r="O9">
-        <v>3.016718386223744</v>
+        <v>6.473542938249977</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.49348181786857</v>
+        <v>0.9753306610190293</v>
       </c>
       <c r="C10">
-        <v>0.1158476654370588</v>
+        <v>0.05488074863222892</v>
       </c>
       <c r="D10">
-        <v>0.3306171106779772</v>
+        <v>0.5090431638544288</v>
       </c>
       <c r="E10">
-        <v>0.06553848392441886</v>
+        <v>0.1561511317268156</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008241746433514114</v>
+        <v>0.002535425161159306</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6576065282686869</v>
+        <v>1.493397360837626</v>
       </c>
       <c r="J10">
-        <v>0.02693598261768493</v>
+        <v>0.05826636055000467</v>
       </c>
       <c r="K10">
-        <v>1.341344999214812</v>
+        <v>0.6615078017956932</v>
       </c>
       <c r="L10">
-        <v>0.2863884139153328</v>
+        <v>0.4432019760811556</v>
       </c>
       <c r="M10">
-        <v>0.344548805776725</v>
+        <v>0.317156539942431</v>
       </c>
       <c r="N10">
-        <v>1.119086365952597</v>
+        <v>2.713249779886038</v>
       </c>
       <c r="O10">
-        <v>3.103008514284795</v>
+        <v>6.44282303829965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.599083230930631</v>
+        <v>1.002451977611742</v>
       </c>
       <c r="C11">
-        <v>0.122492237154944</v>
+        <v>0.05697774192096006</v>
       </c>
       <c r="D11">
-        <v>0.345111985103685</v>
+        <v>0.5111876934736728</v>
       </c>
       <c r="E11">
-        <v>0.06650047776633272</v>
+        <v>0.1559748363220503</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008213194275673257</v>
+        <v>0.002533676009579202</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6605576775678017</v>
+        <v>1.489108272895898</v>
       </c>
       <c r="J11">
-        <v>0.02708446361733685</v>
+        <v>0.05831464599870007</v>
       </c>
       <c r="K11">
-        <v>1.439132678415092</v>
+        <v>0.6877942559505925</v>
       </c>
       <c r="L11">
-        <v>0.2996658959126108</v>
+        <v>0.4453297098727091</v>
       </c>
       <c r="M11">
-        <v>0.3669728743574439</v>
+        <v>0.3223812581444321</v>
       </c>
       <c r="N11">
-        <v>1.083512387976089</v>
+        <v>2.698069681239517</v>
       </c>
       <c r="O11">
-        <v>3.148017315388103</v>
+        <v>6.431438947153424</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.639230811079869</v>
+        <v>1.012770883374913</v>
       </c>
       <c r="C12">
-        <v>0.1250137276190628</v>
+        <v>0.05776908072789411</v>
       </c>
       <c r="D12">
-        <v>0.3506649254583749</v>
+        <v>0.5120284768903076</v>
       </c>
       <c r="E12">
-        <v>0.06687576193451505</v>
+        <v>0.1559145137060511</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008202487314210302</v>
+        <v>0.002533026535763577</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6618542520241633</v>
+        <v>1.487564285135562</v>
       </c>
       <c r="J12">
-        <v>0.02714109561477951</v>
+        <v>0.05833290550359838</v>
       </c>
       <c r="K12">
-        <v>1.476292577279622</v>
+        <v>0.6977765352760343</v>
       </c>
       <c r="L12">
-        <v>0.3047452887524571</v>
+        <v>0.4461588763886795</v>
       </c>
       <c r="M12">
-        <v>0.3755106788726081</v>
+        <v>0.3243770379228366</v>
       </c>
       <c r="N12">
-        <v>1.070274355981176</v>
+        <v>2.692428020066391</v>
       </c>
       <c r="O12">
-        <v>3.165942183207505</v>
+        <v>6.427499986162758</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.630576954167168</v>
+        <v>1.010546369527219</v>
       </c>
       <c r="C13">
-        <v>0.124470419774255</v>
+        <v>0.05759877410855552</v>
       </c>
       <c r="D13">
-        <v>0.3494660786899715</v>
+        <v>0.5118461248806909</v>
       </c>
       <c r="E13">
-        <v>0.06679444053959749</v>
+        <v>0.1559272193892784</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008204788646239281</v>
+        <v>0.002533165839242521</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6615668865121904</v>
+        <v>1.487893245652998</v>
       </c>
       <c r="J13">
-        <v>0.02712888005169667</v>
+        <v>0.05832897411665527</v>
       </c>
       <c r="K13">
-        <v>1.468283470832091</v>
+        <v>0.6956254287030674</v>
       </c>
       <c r="L13">
-        <v>0.3036489979673718</v>
+        <v>0.4459792599241155</v>
       </c>
       <c r="M13">
-        <v>0.3736697767037853</v>
+        <v>0.3239464444526732</v>
       </c>
       <c r="N13">
-        <v>1.073114896633228</v>
+        <v>2.69363830711022</v>
       </c>
       <c r="O13">
-        <v>3.162041668732087</v>
+        <v>6.428331778479901</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.602382909090778</v>
+        <v>1.003299949080031</v>
       </c>
       <c r="C14">
-        <v>0.1226995667140756</v>
+        <v>0.0570429009584501</v>
       </c>
       <c r="D14">
-        <v>0.3455675190075169</v>
+        <v>0.5112562908396541</v>
       </c>
       <c r="E14">
-        <v>0.06653112930136906</v>
+        <v>0.1559697446881749</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008212311326166536</v>
+        <v>0.002533622319129952</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6606607011682044</v>
+        <v>1.488979641514888</v>
       </c>
       <c r="J14">
-        <v>0.02708911434746319</v>
+        <v>0.05831614872509761</v>
       </c>
       <c r="K14">
-        <v>1.442187142192864</v>
+        <v>0.6886149426601662</v>
       </c>
       <c r="L14">
-        <v>0.3000827261948587</v>
+        <v>0.4453974568051677</v>
       </c>
       <c r="M14">
-        <v>0.3676743302375058</v>
+        <v>0.3225451064812646</v>
       </c>
       <c r="N14">
-        <v>1.082418565687824</v>
+        <v>2.69760339985864</v>
       </c>
       <c r="O14">
-        <v>3.149474029089674</v>
+        <v>6.431107435340039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.585134459356567</v>
+        <v>0.9988676228301756</v>
       </c>
       <c r="C15">
-        <v>0.1216156044611978</v>
+        <v>0.05670205453220944</v>
       </c>
       <c r="D15">
-        <v>0.3431880149819477</v>
+        <v>0.5108987338151252</v>
       </c>
       <c r="E15">
-        <v>0.06637129082592885</v>
+        <v>0.155996630156281</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008216932741049441</v>
+        <v>0.002533903603302967</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6601292529960503</v>
+        <v>1.4896555307906</v>
       </c>
       <c r="J15">
-        <v>0.02706481101704217</v>
+        <v>0.05830828951633382</v>
       </c>
       <c r="K15">
-        <v>1.426219819064045</v>
+        <v>0.6843244697681428</v>
       </c>
       <c r="L15">
-        <v>0.2979051036541733</v>
+        <v>0.445044134666162</v>
       </c>
       <c r="M15">
-        <v>0.3640081126334493</v>
+        <v>0.3216889938347052</v>
       </c>
       <c r="N15">
-        <v>1.088147944114052</v>
+        <v>2.700046029964803</v>
       </c>
       <c r="O15">
-        <v>3.141892369194835</v>
+        <v>6.432856026956784</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.48660169637202</v>
+        <v>0.9735650647121759</v>
       </c>
       <c r="C16">
-        <v>0.1154140983424128</v>
+        <v>0.05474332138027194</v>
       </c>
       <c r="D16">
-        <v>0.3296785524606065</v>
+        <v>0.5089070364200978</v>
       </c>
       <c r="E16">
-        <v>0.06547712712496967</v>
+        <v>0.1561635551253424</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008243627336584377</v>
+        <v>0.00253554127958792</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6574381720677778</v>
+        <v>1.493688891704856</v>
       </c>
       <c r="J16">
-        <v>0.0269263330452425</v>
+        <v>0.05826320148381914</v>
       </c>
       <c r="K16">
-        <v>1.334971560378307</v>
+        <v>0.6597938920016873</v>
       </c>
       <c r="L16">
-        <v>0.2855276964821059</v>
+        <v>0.4430662101676006</v>
       </c>
       <c r="M16">
-        <v>0.3430895694486722</v>
+        <v>0.3168175206811767</v>
       </c>
       <c r="N16">
-        <v>1.121443348790454</v>
+        <v>2.714256769500707</v>
       </c>
       <c r="O16">
-        <v>3.100187375677734</v>
+        <v>6.443619095031295</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.426417748040905</v>
+        <v>0.9581301546212444</v>
       </c>
       <c r="C17">
-        <v>0.1116177129094353</v>
+        <v>0.05353682094795431</v>
       </c>
       <c r="D17">
-        <v>0.3215002071228952</v>
+        <v>0.5077364433427505</v>
       </c>
       <c r="E17">
-        <v>0.06494764436413192</v>
+        <v>0.1562774494945494</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008260195571670126</v>
+        <v>0.002536568965898136</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6560955434354554</v>
+        <v>1.496306196607854</v>
       </c>
       <c r="J17">
-        <v>0.02684205045102317</v>
+        <v>0.05823549705050457</v>
       </c>
       <c r="K17">
-        <v>1.279206419472075</v>
+        <v>0.6447959375355481</v>
       </c>
       <c r="L17">
-        <v>0.2780222073060798</v>
+        <v>0.4418946931115215</v>
       </c>
       <c r="M17">
-        <v>0.3303343260654827</v>
+        <v>0.313859997421396</v>
       </c>
       <c r="N17">
-        <v>1.14227488092018</v>
+        <v>2.723164698112146</v>
       </c>
       <c r="O17">
-        <v>3.076113611825207</v>
+        <v>6.450884982995092</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.391892316711761</v>
+        <v>0.9492847387001575</v>
       </c>
       <c r="C18">
-        <v>0.1094366617976021</v>
+        <v>0.05284108353667705</v>
       </c>
       <c r="D18">
-        <v>0.3168349966119735</v>
+        <v>0.5070820239174338</v>
       </c>
       <c r="E18">
-        <v>0.06464994859605966</v>
+        <v>0.1563471896205311</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008269797111115006</v>
+        <v>0.002537168544573432</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6554334888180975</v>
+        <v>1.497864180215139</v>
       </c>
       <c r="J18">
-        <v>0.02679380395190378</v>
+        <v>0.0582195460030599</v>
       </c>
       <c r="K18">
-        <v>1.247204569251068</v>
+        <v>0.6361883412735949</v>
       </c>
       <c r="L18">
-        <v>0.2737362723991197</v>
+        <v>0.4412362945125636</v>
       </c>
       <c r="M18">
-        <v>0.3230249545527926</v>
+        <v>0.3121703392057142</v>
       </c>
       <c r="N18">
-        <v>1.154403097749856</v>
+        <v>2.728358174068454</v>
       </c>
       <c r="O18">
-        <v>3.062805298861434</v>
+        <v>6.455307997838247</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.380217658422964</v>
+        <v>0.946295407545108</v>
       </c>
       <c r="C19">
-        <v>0.1086985906708264</v>
+        <v>0.05260521165475041</v>
       </c>
       <c r="D19">
-        <v>0.315261963447611</v>
+        <v>0.5068636943888265</v>
       </c>
       <c r="E19">
-        <v>0.06455031583688253</v>
+        <v>0.1563715298908637</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008273060510134258</v>
+        <v>0.00253737301001418</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6552279671469918</v>
+        <v>1.49840072086554</v>
       </c>
       <c r="J19">
-        <v>0.02677750672086621</v>
+        <v>0.0582141424832221</v>
       </c>
       <c r="K19">
-        <v>1.236381295506362</v>
+        <v>0.6332772079335882</v>
       </c>
       <c r="L19">
-        <v>0.2722903470451996</v>
+        <v>0.4410160252617175</v>
       </c>
       <c r="M19">
-        <v>0.3205546519713423</v>
+        <v>0.3116002180215176</v>
       </c>
       <c r="N19">
-        <v>1.158534411112164</v>
+        <v>2.730128597179316</v>
       </c>
       <c r="O19">
-        <v>3.058390212308922</v>
+        <v>6.456847456702775</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.432814908806279</v>
+        <v>0.9597698854583427</v>
       </c>
       <c r="C20">
-        <v>0.1120215734690504</v>
+        <v>0.05366544034211529</v>
       </c>
       <c r="D20">
-        <v>0.3223667636842009</v>
+        <v>0.5078591024337697</v>
       </c>
       <c r="E20">
-        <v>0.06500329645799852</v>
+        <v>0.1562648875243067</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008258424440575484</v>
+        <v>0.0025364586896691</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6562269957584661</v>
+        <v>1.496022139167763</v>
       </c>
       <c r="J20">
-        <v>0.02685099827209925</v>
+        <v>0.05823844791320365</v>
       </c>
       <c r="K20">
-        <v>1.285135061911262</v>
+        <v>0.6463905504806746</v>
       </c>
       <c r="L20">
-        <v>0.2788179423025809</v>
+        <v>0.4420178073177823</v>
       </c>
       <c r="M20">
-        <v>0.3316893067504623</v>
+        <v>0.3141736488985103</v>
       </c>
       <c r="N20">
-        <v>1.140042110073118</v>
+        <v>2.722209202740157</v>
       </c>
       <c r="O20">
-        <v>3.078620219489579</v>
+        <v>6.450086281499608</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.610659727766063</v>
+        <v>1.005427083500649</v>
       </c>
       <c r="C21">
-        <v>0.1232195531816132</v>
+        <v>0.05720624901914562</v>
       </c>
       <c r="D21">
-        <v>0.346710845752952</v>
+        <v>0.5114287615946864</v>
       </c>
       <c r="E21">
-        <v>0.0666081676726975</v>
+        <v>0.1559570794886991</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008210098915557195</v>
+        <v>0.002533487890462763</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6609219297855446</v>
+        <v>1.488658365149945</v>
       </c>
       <c r="J21">
-        <v>0.02710078308776165</v>
+        <v>0.0583199165390953</v>
       </c>
       <c r="K21">
-        <v>1.449848601739063</v>
+        <v>0.6906733322050798</v>
       </c>
       <c r="L21">
-        <v>0.3011287979539503</v>
+        <v>0.4455677112710674</v>
       </c>
       <c r="M21">
-        <v>0.3694340447299922</v>
+        <v>0.3229562453521027</v>
       </c>
       <c r="N21">
-        <v>1.079679457031048</v>
+        <v>2.696435860074409</v>
       </c>
       <c r="O21">
-        <v>3.15314109496893</v>
+        <v>6.430282067623693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.7278254929887</v>
+        <v>1.03554996275426</v>
       </c>
       <c r="C22">
-        <v>0.1305698783673392</v>
+        <v>0.05950435516469099</v>
       </c>
       <c r="D22">
-        <v>0.362996674916289</v>
+        <v>0.5139289467205828</v>
       </c>
       <c r="E22">
-        <v>0.0677213973955002</v>
+        <v>0.1557934151360811</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008179125914773078</v>
+        <v>0.002531621417902773</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6650389158522572</v>
+        <v>1.484313106168955</v>
       </c>
       <c r="J22">
-        <v>0.02726642087538966</v>
+        <v>0.0583730142483283</v>
       </c>
       <c r="K22">
-        <v>1.558263916523515</v>
+        <v>0.7197786292925059</v>
       </c>
       <c r="L22">
-        <v>0.3160123255821645</v>
+        <v>0.4480243498043279</v>
       </c>
       <c r="M22">
-        <v>0.3943745545407111</v>
+        <v>0.3287969003163767</v>
       </c>
       <c r="N22">
-        <v>1.04159178046136</v>
+        <v>2.680213482466563</v>
       </c>
       <c r="O22">
-        <v>3.207007485882059</v>
+        <v>6.419506599849484</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.665200133760436</v>
+        <v>1.019447123763229</v>
       </c>
       <c r="C23">
-        <v>0.1266434912630956</v>
+        <v>0.05827928186630515</v>
       </c>
       <c r="D23">
-        <v>0.3542687253074916</v>
+        <v>0.5125792936092495</v>
       </c>
       <c r="E23">
-        <v>0.06712118807317147</v>
+        <v>0.1558773423604816</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008195602430194221</v>
+        <v>0.002532610735676186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6627422642219827</v>
+        <v>1.486589525570118</v>
       </c>
       <c r="J23">
-        <v>0.02717778116230729</v>
+        <v>0.05834468855342312</v>
       </c>
       <c r="K23">
-        <v>1.500324651250253</v>
+        <v>0.704229765335981</v>
       </c>
       <c r="L23">
-        <v>0.308039762948269</v>
+        <v>0.4467007382497314</v>
       </c>
       <c r="M23">
-        <v>0.3810368823074839</v>
+        <v>0.3256704687371155</v>
       </c>
       <c r="N23">
-        <v>1.061792244973667</v>
+        <v>2.688814767550561</v>
       </c>
       <c r="O23">
-        <v>3.177766965537785</v>
+        <v>6.425059509862336</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.429922519792228</v>
+        <v>0.9590284748826718</v>
       </c>
       <c r="C24">
-        <v>0.1118389834087878</v>
+        <v>0.05360729806854181</v>
       </c>
       <c r="D24">
-        <v>0.3219748797009743</v>
+        <v>0.5078035904066098</v>
       </c>
       <c r="E24">
-        <v>0.06497811527984787</v>
+        <v>0.156270553517535</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008259224930711641</v>
+        <v>0.002536508518318143</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6561672247641752</v>
+        <v>1.496150395624056</v>
       </c>
       <c r="J24">
-        <v>0.02684695231581014</v>
+        <v>0.058237113901213</v>
       </c>
       <c r="K24">
-        <v>1.282454542428638</v>
+        <v>0.6456695794293523</v>
       </c>
       <c r="L24">
-        <v>0.2784581002411812</v>
+        <v>0.4419621002729315</v>
       </c>
       <c r="M24">
-        <v>0.3310766462218169</v>
+        <v>0.3140318138452471</v>
       </c>
       <c r="N24">
-        <v>1.141051073298808</v>
+        <v>2.722640957326405</v>
       </c>
       <c r="O24">
-        <v>3.077485329057083</v>
+        <v>6.450446608872568</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.179544469381597</v>
+        <v>0.8950959705092885</v>
       </c>
       <c r="C25">
-        <v>0.09596202131751852</v>
+        <v>0.04849938725641323</v>
       </c>
       <c r="D25">
-        <v>0.2886069052662776</v>
+        <v>0.5033743250440921</v>
       </c>
       <c r="E25">
-        <v>0.06292657521166944</v>
+        <v>0.1568565598601808</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008330617827931335</v>
+        <v>0.002541037393988447</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6532536125873563</v>
+        <v>1.508474038000422</v>
       </c>
       <c r="J25">
-        <v>0.02649875511510835</v>
+        <v>0.05812045935555599</v>
       </c>
       <c r="K25">
-        <v>1.050169449124525</v>
+        <v>0.5832248327562581</v>
       </c>
       <c r="L25">
-        <v>0.2477224328606411</v>
+        <v>0.4374409668464949</v>
       </c>
       <c r="M25">
-        <v>0.2782071315546268</v>
+        <v>0.3019152485003076</v>
       </c>
       <c r="N25">
-        <v>1.232115071745682</v>
+        <v>2.761799525235869</v>
       </c>
       <c r="O25">
-        <v>2.989707882073816</v>
+        <v>6.487156539939463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8491011808501696</v>
+        <v>0.9974664954180525</v>
       </c>
       <c r="C2">
-        <v>0.04467913352849706</v>
+        <v>0.08430378304726105</v>
       </c>
       <c r="D2">
-        <v>0.500737560853068</v>
+        <v>0.2651434515664874</v>
       </c>
       <c r="E2">
-        <v>0.1574281767461958</v>
+        <v>0.06162270992097874</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002544653869563485</v>
+        <v>0.0008385722171828367</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.519282554190269</v>
+        <v>0.6543704967857806</v>
       </c>
       <c r="J2">
-        <v>0.05803402912153022</v>
+        <v>0.02624817302536719</v>
       </c>
       <c r="K2">
-        <v>0.5378763956628632</v>
+        <v>0.8808691287048021</v>
       </c>
       <c r="L2">
-        <v>0.4346228824781164</v>
+        <v>0.2259686571142439</v>
       </c>
       <c r="M2">
-        <v>0.2933735593118598</v>
+        <v>0.2399978200219692</v>
       </c>
       <c r="N2">
-        <v>2.792936057651859</v>
+        <v>1.303683609879416</v>
       </c>
       <c r="O2">
-        <v>6.522228300717671</v>
+        <v>2.940789083204891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8186103464885832</v>
+        <v>0.8751906462555326</v>
       </c>
       <c r="C3">
-        <v>0.04205291901339336</v>
+        <v>0.07640147851488877</v>
       </c>
       <c r="D3">
-        <v>0.4993420319151767</v>
+        <v>0.2498599619694772</v>
       </c>
       <c r="E3">
-        <v>0.1579034730284459</v>
+        <v>0.06086015192534688</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002547282046846016</v>
+        <v>0.0008424724414287489</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.527692481185589</v>
+        <v>0.6570100728512109</v>
       </c>
       <c r="J3">
-        <v>0.05797511702315372</v>
+        <v>0.02608123247768024</v>
       </c>
       <c r="K3">
-        <v>0.5075410874301269</v>
+        <v>0.7669338301799371</v>
       </c>
       <c r="L3">
-        <v>0.4330334067178541</v>
+        <v>0.2117124494260167</v>
       </c>
       <c r="M3">
-        <v>0.2878235080860456</v>
+        <v>0.2144782996068244</v>
       </c>
       <c r="N3">
-        <v>2.815478194351568</v>
+        <v>1.35487975277905</v>
       </c>
       <c r="O3">
-        <v>6.551025228641151</v>
+        <v>2.916599654654362</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8002274915249927</v>
+        <v>0.8005750269382759</v>
       </c>
       <c r="C4">
-        <v>0.04042203794264765</v>
+        <v>0.07154233921108499</v>
       </c>
       <c r="D4">
-        <v>0.4986789552701936</v>
+        <v>0.2407587255909931</v>
       </c>
       <c r="E4">
-        <v>0.1582388360435232</v>
+        <v>0.06044925555664982</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00254898365746222</v>
+        <v>0.0008449512557057905</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.533392317450126</v>
+        <v>0.6595125078709714</v>
       </c>
       <c r="J4">
-        <v>0.05793877849605966</v>
+        <v>0.02597993320864411</v>
       </c>
       <c r="K4">
-        <v>0.4891135300305649</v>
+        <v>0.697288246932672</v>
       </c>
       <c r="L4">
-        <v>0.4322161356690515</v>
+        <v>0.2031806511999434</v>
       </c>
       <c r="M4">
-        <v>0.284534262075038</v>
+        <v>0.1989722584442823</v>
       </c>
       <c r="N4">
-        <v>2.830030724159098</v>
+        <v>1.387604055834721</v>
       </c>
       <c r="O4">
-        <v>6.571191189803159</v>
+        <v>2.905911149217303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7928221302171323</v>
+        <v>0.770272649220118</v>
       </c>
       <c r="C5">
-        <v>0.03975282724029938</v>
+        <v>0.06955955467181241</v>
       </c>
       <c r="D5">
-        <v>0.4984576050388938</v>
+        <v>0.2371180146332676</v>
       </c>
       <c r="E5">
-        <v>0.1583864718586465</v>
+        <v>0.06029589061003904</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002549699245461667</v>
+        <v>0.0008459828496512237</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.535850007852584</v>
+        <v>0.6607473832363659</v>
       </c>
       <c r="J5">
-        <v>0.05792392875858798</v>
+        <v>0.02593892587571567</v>
       </c>
       <c r="K5">
-        <v>0.4816545583144602</v>
+        <v>0.668974044631355</v>
       </c>
       <c r="L5">
-        <v>0.4319231105920807</v>
+        <v>0.199757064759396</v>
       </c>
       <c r="M5">
-        <v>0.2832238185839131</v>
+        <v>0.1926914313625758</v>
       </c>
       <c r="N5">
-        <v>2.836140026388657</v>
+        <v>1.401258118204135</v>
       </c>
       <c r="O5">
-        <v>6.580034447044056</v>
+        <v>2.902566478667097</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7915976768595385</v>
+        <v>0.7652469064665581</v>
       </c>
       <c r="C6">
-        <v>0.03964142688354855</v>
+        <v>0.06923013073154749</v>
       </c>
       <c r="D6">
-        <v>0.4984238047933758</v>
+        <v>0.2365175058672975</v>
       </c>
       <c r="E6">
-        <v>0.158411650186542</v>
+        <v>0.06027126531115812</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00254981940928506</v>
+        <v>0.0008461554501231854</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.536266261264782</v>
+        <v>0.6609652383485667</v>
       </c>
       <c r="J6">
-        <v>0.05792146047484437</v>
+        <v>0.0259321322968411</v>
       </c>
       <c r="K6">
-        <v>0.4804190611623227</v>
+        <v>0.6642762166862184</v>
       </c>
       <c r="L6">
-        <v>0.4318768746057771</v>
+        <v>0.1991917219315482</v>
       </c>
       <c r="M6">
-        <v>0.2830080338546921</v>
+        <v>0.1916507160531005</v>
       </c>
       <c r="N6">
-        <v>2.837165287177649</v>
+        <v>1.403544449935064</v>
       </c>
       <c r="O6">
-        <v>6.581540660573921</v>
+        <v>2.902071137377959</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8001272719677957</v>
+        <v>0.8001659526009917</v>
       </c>
       <c r="C7">
-        <v>0.04041303140369479</v>
+        <v>0.07151561050289246</v>
       </c>
       <c r="D7">
-        <v>0.4986757720621711</v>
+        <v>0.2407093537733687</v>
       </c>
       <c r="E7">
-        <v>0.1582407826479688</v>
+        <v>0.06044713064972385</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002548993218106967</v>
+        <v>0.0008449650807471381</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.533424916069492</v>
+        <v>0.6595282993488709</v>
       </c>
       <c r="J7">
-        <v>0.05793857839507055</v>
+        <v>0.02597937910196801</v>
       </c>
       <c r="K7">
-        <v>0.4890127309594021</v>
+        <v>0.6969061351797166</v>
       </c>
       <c r="L7">
-        <v>0.4322120216333616</v>
+        <v>0.2031342673967913</v>
       </c>
       <c r="M7">
-        <v>0.2845164675048295</v>
+        <v>0.1988874029512679</v>
       </c>
       <c r="N7">
-        <v>2.830112391336757</v>
+        <v>1.387786916385011</v>
       </c>
       <c r="O7">
-        <v>6.571307919644624</v>
+        <v>2.905861994795885</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8385180335322389</v>
+        <v>0.9552023041189557</v>
       </c>
       <c r="C8">
-        <v>0.04377743199422213</v>
+        <v>0.08158000395643228</v>
       </c>
       <c r="D8">
-        <v>0.5002162393951579</v>
+        <v>0.2598131262043069</v>
       </c>
       <c r="E8">
-        <v>0.1575830404477436</v>
+        <v>0.06134767739913727</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002545541860525148</v>
+        <v>0.00083989976401727</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.522071118853948</v>
+        <v>0.6550935486602611</v>
       </c>
       <c r="J8">
-        <v>0.05801375090902283</v>
+        <v>0.02619034383823138</v>
       </c>
       <c r="K8">
-        <v>0.5273758881635899</v>
+        <v>0.8415126386948941</v>
       </c>
       <c r="L8">
-        <v>0.4340419690267154</v>
+        <v>0.2210055669716269</v>
       </c>
       <c r="M8">
-        <v>0.2914353936967622</v>
+        <v>0.2311629952799876</v>
       </c>
       <c r="N8">
-        <v>2.800560962215732</v>
+        <v>1.321064893135834</v>
       </c>
       <c r="O8">
-        <v>6.531642236888018</v>
+        <v>2.931562094885692</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9164651693581334</v>
+        <v>1.263489656992306</v>
       </c>
       <c r="C9">
-        <v>0.05022918302607593</v>
+        <v>0.101302248586876</v>
       </c>
       <c r="D9">
-        <v>0.5047695650459332</v>
+        <v>0.2996653068855295</v>
       </c>
       <c r="E9">
-        <v>0.1566374563727546</v>
+        <v>0.06358444351381642</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002539468234520856</v>
+        <v>0.0008306185016028772</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.504053701418307</v>
+        <v>0.6537070882955547</v>
       </c>
       <c r="J9">
-        <v>0.05815983788212709</v>
+        <v>0.02661504196617948</v>
       </c>
       <c r="K9">
-        <v>0.6041623270315597</v>
+        <v>1.128107348125809</v>
       </c>
       <c r="L9">
-        <v>0.4388847917768857</v>
+        <v>0.2579311639100297</v>
       </c>
       <c r="M9">
-        <v>0.3059379930968902</v>
+        <v>0.295894561875869</v>
       </c>
       <c r="N9">
-        <v>2.748251384547864</v>
+        <v>1.200720639257128</v>
       </c>
       <c r="O9">
-        <v>6.473542938249977</v>
+        <v>3.016718386223744</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9753306610190293</v>
+        <v>1.49348181786857</v>
       </c>
       <c r="C10">
-        <v>0.05488074863222892</v>
+        <v>0.1158476654372009</v>
       </c>
       <c r="D10">
-        <v>0.5090431638544288</v>
+        <v>0.3306171106781477</v>
       </c>
       <c r="E10">
-        <v>0.1561511317268156</v>
+        <v>0.06553848392441353</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002535425161159306</v>
+        <v>0.0008241746433210823</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.493397360837626</v>
+        <v>0.657606528268694</v>
       </c>
       <c r="J10">
-        <v>0.05826636055000467</v>
+        <v>0.02693598261769736</v>
       </c>
       <c r="K10">
-        <v>0.6615078017956932</v>
+        <v>1.34134499921484</v>
       </c>
       <c r="L10">
-        <v>0.4432019760811556</v>
+        <v>0.2863884139153043</v>
       </c>
       <c r="M10">
-        <v>0.317156539942431</v>
+        <v>0.3445488057767321</v>
       </c>
       <c r="N10">
-        <v>2.713249779886038</v>
+        <v>1.119086365952597</v>
       </c>
       <c r="O10">
-        <v>6.44282303829965</v>
+        <v>3.103008514284824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.002451977611742</v>
+        <v>1.599083230930603</v>
       </c>
       <c r="C11">
-        <v>0.05697774192096006</v>
+        <v>0.1224922371548161</v>
       </c>
       <c r="D11">
-        <v>0.5111876934736728</v>
+        <v>0.3451119851034434</v>
       </c>
       <c r="E11">
-        <v>0.1559748363220503</v>
+        <v>0.06650047776634338</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002533676009579202</v>
+        <v>0.0008213194275071544</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.489108272895898</v>
+        <v>0.6605576775678159</v>
       </c>
       <c r="J11">
-        <v>0.05831464599870007</v>
+        <v>0.02708446361743633</v>
       </c>
       <c r="K11">
-        <v>0.6877942559505925</v>
+        <v>1.439132678415177</v>
       </c>
       <c r="L11">
-        <v>0.4453297098727091</v>
+        <v>0.2996658959126677</v>
       </c>
       <c r="M11">
-        <v>0.3223812581444321</v>
+        <v>0.366972874357451</v>
       </c>
       <c r="N11">
-        <v>2.698069681239517</v>
+        <v>1.083512387976096</v>
       </c>
       <c r="O11">
-        <v>6.431438947153424</v>
+        <v>3.148017315388103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.012770883374913</v>
+        <v>1.639230811079756</v>
       </c>
       <c r="C12">
-        <v>0.05776908072789411</v>
+        <v>0.1250137276190628</v>
       </c>
       <c r="D12">
-        <v>0.5120284768903076</v>
+        <v>0.3506649254584602</v>
       </c>
       <c r="E12">
-        <v>0.1559145137060511</v>
+        <v>0.06687576193449907</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002533026535763577</v>
+        <v>0.0008202487313921082</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.487564285135562</v>
+        <v>0.6618542520241633</v>
       </c>
       <c r="J12">
-        <v>0.05833290550359838</v>
+        <v>0.02714109561478661</v>
       </c>
       <c r="K12">
-        <v>0.6977765352760343</v>
+        <v>1.476292577279565</v>
       </c>
       <c r="L12">
-        <v>0.4461588763886795</v>
+        <v>0.3047452887525139</v>
       </c>
       <c r="M12">
-        <v>0.3243770379228366</v>
+        <v>0.375510678872601</v>
       </c>
       <c r="N12">
-        <v>2.692428020066391</v>
+        <v>1.070274355981237</v>
       </c>
       <c r="O12">
-        <v>6.427499986162758</v>
+        <v>3.165942183207477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.010546369527219</v>
+        <v>1.630576954167367</v>
       </c>
       <c r="C13">
-        <v>0.05759877410855552</v>
+        <v>0.1244704197743829</v>
       </c>
       <c r="D13">
-        <v>0.5118461248806909</v>
+        <v>0.349466078690142</v>
       </c>
       <c r="E13">
-        <v>0.1559272193892784</v>
+        <v>0.0667944405396117</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002533165839242521</v>
+        <v>0.000820478864652802</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.487893245652998</v>
+        <v>0.6615668865121975</v>
       </c>
       <c r="J13">
-        <v>0.05832897411665527</v>
+        <v>0.0271288800516496</v>
       </c>
       <c r="K13">
-        <v>0.6956254287030674</v>
+        <v>1.468283470832063</v>
       </c>
       <c r="L13">
-        <v>0.4459792599241155</v>
+        <v>0.3036489979673718</v>
       </c>
       <c r="M13">
-        <v>0.3239464444526732</v>
+        <v>0.3736697767037924</v>
       </c>
       <c r="N13">
-        <v>2.69363830711022</v>
+        <v>1.073114896633285</v>
       </c>
       <c r="O13">
-        <v>6.428331778479901</v>
+        <v>3.162041668732087</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.003299949080031</v>
+        <v>1.602382909090522</v>
       </c>
       <c r="C14">
-        <v>0.0570429009584501</v>
+        <v>0.1226995667137203</v>
       </c>
       <c r="D14">
-        <v>0.5112562908396541</v>
+        <v>0.3455675190074317</v>
       </c>
       <c r="E14">
-        <v>0.1559697446881749</v>
+        <v>0.06653112930134952</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002533622319129952</v>
+        <v>0.0008212311326455889</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.488979641514888</v>
+        <v>0.6606607011681973</v>
       </c>
       <c r="J14">
-        <v>0.05831614872509761</v>
+        <v>0.02708911434754491</v>
       </c>
       <c r="K14">
-        <v>0.6886149426601662</v>
+        <v>1.442187142192807</v>
       </c>
       <c r="L14">
-        <v>0.4453974568051677</v>
+        <v>0.3000827261949297</v>
       </c>
       <c r="M14">
-        <v>0.3225451064812646</v>
+        <v>0.3676743302375058</v>
       </c>
       <c r="N14">
-        <v>2.69760339985864</v>
+        <v>1.082418565687878</v>
       </c>
       <c r="O14">
-        <v>6.431107435340039</v>
+        <v>3.149474029089589</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9988676228301756</v>
+        <v>1.585134459356254</v>
       </c>
       <c r="C15">
-        <v>0.05670205453220944</v>
+        <v>0.1216156044607288</v>
       </c>
       <c r="D15">
-        <v>0.5108987338151252</v>
+        <v>0.3431880149820472</v>
       </c>
       <c r="E15">
-        <v>0.155996630156281</v>
+        <v>0.06637129082593063</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002533903603302967</v>
+        <v>0.0008216932740737912</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.4896555307906</v>
+        <v>0.6601292529960503</v>
       </c>
       <c r="J15">
-        <v>0.05830828951633382</v>
+        <v>0.02706481101704394</v>
       </c>
       <c r="K15">
-        <v>0.6843244697681428</v>
+        <v>1.426219819064045</v>
       </c>
       <c r="L15">
-        <v>0.445044134666162</v>
+        <v>0.2979051036541165</v>
       </c>
       <c r="M15">
-        <v>0.3216889938347052</v>
+        <v>0.3640081126334493</v>
       </c>
       <c r="N15">
-        <v>2.700046029964803</v>
+        <v>1.088147944114059</v>
       </c>
       <c r="O15">
-        <v>6.432856026956784</v>
+        <v>3.141892369194835</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9735650647121759</v>
+        <v>1.486601696372105</v>
       </c>
       <c r="C16">
-        <v>0.05474332138027194</v>
+        <v>0.1154140983427681</v>
       </c>
       <c r="D16">
-        <v>0.5089070364200978</v>
+        <v>0.3296785524606491</v>
       </c>
       <c r="E16">
-        <v>0.1561635551253424</v>
+        <v>0.06547712712496967</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00253554127958792</v>
+        <v>0.0008243627336882321</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.493688891704856</v>
+        <v>0.6574381720677778</v>
       </c>
       <c r="J16">
-        <v>0.05826320148381914</v>
+        <v>0.02692633304533754</v>
       </c>
       <c r="K16">
-        <v>0.6597938920016873</v>
+        <v>1.33497156037842</v>
       </c>
       <c r="L16">
-        <v>0.4430662101676006</v>
+        <v>0.2855276964820774</v>
       </c>
       <c r="M16">
-        <v>0.3168175206811767</v>
+        <v>0.3430895694486651</v>
       </c>
       <c r="N16">
-        <v>2.714256769500707</v>
+        <v>1.1214433487904</v>
       </c>
       <c r="O16">
-        <v>6.443619095031295</v>
+        <v>3.10018737567782</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9581301546212444</v>
+        <v>1.426417748040819</v>
       </c>
       <c r="C17">
-        <v>0.05353682094795431</v>
+        <v>0.1116177129099185</v>
       </c>
       <c r="D17">
-        <v>0.5077364433427505</v>
+        <v>0.3215002071227673</v>
       </c>
       <c r="E17">
-        <v>0.1562774494945494</v>
+        <v>0.06494764436412837</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002536568965898136</v>
+        <v>0.0008260195571670346</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.496306196607854</v>
+        <v>0.6560955434354412</v>
       </c>
       <c r="J17">
-        <v>0.05823549705050457</v>
+        <v>0.02684205045100985</v>
       </c>
       <c r="K17">
-        <v>0.6447959375355481</v>
+        <v>1.279206419472075</v>
       </c>
       <c r="L17">
-        <v>0.4418946931115215</v>
+        <v>0.2780222073060372</v>
       </c>
       <c r="M17">
-        <v>0.313859997421396</v>
+        <v>0.3303343260655041</v>
       </c>
       <c r="N17">
-        <v>2.723164698112146</v>
+        <v>1.142274880920166</v>
       </c>
       <c r="O17">
-        <v>6.450884982995092</v>
+        <v>3.07611361182515</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9492847387001575</v>
+        <v>1.391892316711846</v>
       </c>
       <c r="C18">
-        <v>0.05284108353667705</v>
+        <v>0.10943666179746</v>
       </c>
       <c r="D18">
-        <v>0.5070820239174338</v>
+        <v>0.3168349966120161</v>
       </c>
       <c r="E18">
-        <v>0.1563471896205311</v>
+        <v>0.06464994859605433</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002537168544573432</v>
+        <v>0.0008269797111091215</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.497864180215139</v>
+        <v>0.6554334888180975</v>
       </c>
       <c r="J18">
-        <v>0.0582195460030599</v>
+        <v>0.02679380395186648</v>
       </c>
       <c r="K18">
-        <v>0.6361883412735949</v>
+        <v>1.247204569251011</v>
       </c>
       <c r="L18">
-        <v>0.4412362945125636</v>
+        <v>0.2737362723990913</v>
       </c>
       <c r="M18">
-        <v>0.3121703392057142</v>
+        <v>0.3230249545527855</v>
       </c>
       <c r="N18">
-        <v>2.728358174068454</v>
+        <v>1.154403097749821</v>
       </c>
       <c r="O18">
-        <v>6.455307997838247</v>
+        <v>3.062805298861349</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.946295407545108</v>
+        <v>1.380217658422765</v>
       </c>
       <c r="C19">
-        <v>0.05260521165475041</v>
+        <v>0.1086985906704712</v>
       </c>
       <c r="D19">
-        <v>0.5068636943888265</v>
+        <v>0.3152619634474689</v>
       </c>
       <c r="E19">
-        <v>0.1563715298908637</v>
+        <v>0.06455031583690563</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00253737301001418</v>
+        <v>0.0008273060510124564</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.49840072086554</v>
+        <v>0.6552279671470131</v>
       </c>
       <c r="J19">
-        <v>0.0582141424832221</v>
+        <v>0.0267775067208964</v>
       </c>
       <c r="K19">
-        <v>0.6332772079335882</v>
+        <v>1.236381295506334</v>
       </c>
       <c r="L19">
-        <v>0.4410160252617175</v>
+        <v>0.2722903470451996</v>
       </c>
       <c r="M19">
-        <v>0.3116002180215176</v>
+        <v>0.3205546519713423</v>
       </c>
       <c r="N19">
-        <v>2.730128597179316</v>
+        <v>1.158534411112171</v>
       </c>
       <c r="O19">
-        <v>6.456847456702775</v>
+        <v>3.058390212308922</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9597698854583427</v>
+        <v>1.432814908806222</v>
       </c>
       <c r="C20">
-        <v>0.05366544034211529</v>
+        <v>0.1120215734691641</v>
       </c>
       <c r="D20">
-        <v>0.5078591024337697</v>
+        <v>0.322366763684272</v>
       </c>
       <c r="E20">
-        <v>0.1562648875243067</v>
+        <v>0.06500329645801095</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0025364586896691</v>
+        <v>0.0008258424440864454</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.496022139167763</v>
+        <v>0.656226995758459</v>
       </c>
       <c r="J20">
-        <v>0.05823844791320365</v>
+        <v>0.02685099827215875</v>
       </c>
       <c r="K20">
-        <v>0.6463905504806746</v>
+        <v>1.285135061911262</v>
       </c>
       <c r="L20">
-        <v>0.4420178073177823</v>
+        <v>0.2788179423025241</v>
       </c>
       <c r="M20">
-        <v>0.3141736488985103</v>
+        <v>0.3316893067504765</v>
       </c>
       <c r="N20">
-        <v>2.722209202740157</v>
+        <v>1.140042110073178</v>
       </c>
       <c r="O20">
-        <v>6.450086281499608</v>
+        <v>3.078620219489608</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.005427083500649</v>
+        <v>1.610659727766176</v>
       </c>
       <c r="C21">
-        <v>0.05720624901914562</v>
+        <v>0.123219553181471</v>
       </c>
       <c r="D21">
-        <v>0.5114287615946864</v>
+        <v>0.3467108457530514</v>
       </c>
       <c r="E21">
-        <v>0.1559570794886991</v>
+        <v>0.06660816767270816</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002533487890462763</v>
+        <v>0.0008210098915823117</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.488658365149945</v>
+        <v>0.660921929785502</v>
       </c>
       <c r="J21">
-        <v>0.0583199165390953</v>
+        <v>0.0271007830879002</v>
       </c>
       <c r="K21">
-        <v>0.6906733322050798</v>
+        <v>1.449848601739092</v>
       </c>
       <c r="L21">
-        <v>0.4455677112710674</v>
+        <v>0.3011287979541493</v>
       </c>
       <c r="M21">
-        <v>0.3229562453521027</v>
+        <v>0.369434044729978</v>
       </c>
       <c r="N21">
-        <v>2.696435860074409</v>
+        <v>1.079679457031006</v>
       </c>
       <c r="O21">
-        <v>6.430282067623693</v>
+        <v>3.153141094968845</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.03554996275426</v>
+        <v>1.727825492988615</v>
       </c>
       <c r="C22">
-        <v>0.05950435516469099</v>
+        <v>0.1305698783671971</v>
       </c>
       <c r="D22">
-        <v>0.5139289467205828</v>
+        <v>0.3629966749162321</v>
       </c>
       <c r="E22">
-        <v>0.1557934151360811</v>
+        <v>0.06772139739551442</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002531621417902773</v>
+        <v>0.000817912591506092</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.484313106168955</v>
+        <v>0.6650389158522287</v>
       </c>
       <c r="J22">
-        <v>0.0583730142483283</v>
+        <v>0.02726642087537279</v>
       </c>
       <c r="K22">
-        <v>0.7197786292925059</v>
+        <v>1.558263916523515</v>
       </c>
       <c r="L22">
-        <v>0.4480243498043279</v>
+        <v>0.3160123255822072</v>
       </c>
       <c r="M22">
-        <v>0.3287969003163767</v>
+        <v>0.3943745545406898</v>
       </c>
       <c r="N22">
-        <v>2.680213482466563</v>
+        <v>1.041591780461335</v>
       </c>
       <c r="O22">
-        <v>6.419506599849484</v>
+        <v>3.207007485882031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.019447123763229</v>
+        <v>1.66520013376055</v>
       </c>
       <c r="C23">
-        <v>0.05827928186630515</v>
+        <v>0.1266434912629819</v>
       </c>
       <c r="D23">
-        <v>0.5125792936092495</v>
+        <v>0.3542687253073069</v>
       </c>
       <c r="E23">
-        <v>0.1558773423604816</v>
+        <v>0.06712118807317324</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002532610735676186</v>
+        <v>0.0008195602429587414</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.486589525570118</v>
+        <v>0.6627422642220111</v>
       </c>
       <c r="J23">
-        <v>0.05834468855342312</v>
+        <v>0.02717778116225578</v>
       </c>
       <c r="K23">
-        <v>0.704229765335981</v>
+        <v>1.500324651250253</v>
       </c>
       <c r="L23">
-        <v>0.4467007382497314</v>
+        <v>0.3080397629481837</v>
       </c>
       <c r="M23">
-        <v>0.3256704687371155</v>
+        <v>0.381036882307491</v>
       </c>
       <c r="N23">
-        <v>2.688814767550561</v>
+        <v>1.061792244973677</v>
       </c>
       <c r="O23">
-        <v>6.425059509862336</v>
+        <v>3.177766965537842</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9590284748826718</v>
+        <v>1.429922519792228</v>
       </c>
       <c r="C24">
-        <v>0.05360729806854181</v>
+        <v>0.1118389834090294</v>
       </c>
       <c r="D24">
-        <v>0.5078035904066098</v>
+        <v>0.3219748797009885</v>
       </c>
       <c r="E24">
-        <v>0.156270553517535</v>
+        <v>0.06497811527983899</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002536508518318143</v>
+        <v>0.0008259224930718055</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.496150395624056</v>
+        <v>0.656167224764161</v>
       </c>
       <c r="J24">
-        <v>0.058237113901213</v>
+        <v>0.02684695231577994</v>
       </c>
       <c r="K24">
-        <v>0.6456695794293523</v>
+        <v>1.282454542428638</v>
       </c>
       <c r="L24">
-        <v>0.4419621002729315</v>
+        <v>0.2784581002412381</v>
       </c>
       <c r="M24">
-        <v>0.3140318138452471</v>
+        <v>0.3310766462218027</v>
       </c>
       <c r="N24">
-        <v>2.722640957326405</v>
+        <v>1.141051073298801</v>
       </c>
       <c r="O24">
-        <v>6.450446608872568</v>
+        <v>3.077485329057055</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8950959705092885</v>
+        <v>1.179544469381625</v>
       </c>
       <c r="C25">
-        <v>0.04849938725641323</v>
+        <v>0.09596202131751852</v>
       </c>
       <c r="D25">
-        <v>0.5033743250440921</v>
+        <v>0.288606905266235</v>
       </c>
       <c r="E25">
-        <v>0.1568565598601808</v>
+        <v>0.06292657521167122</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002541037393988447</v>
+        <v>0.0008330617827939264</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.508474038000422</v>
+        <v>0.6532536125873563</v>
       </c>
       <c r="J25">
-        <v>0.05812045935555599</v>
+        <v>0.0264987551152327</v>
       </c>
       <c r="K25">
-        <v>0.5832248327562581</v>
+        <v>1.050169449124468</v>
       </c>
       <c r="L25">
-        <v>0.4374409668464949</v>
+        <v>0.2477224328606411</v>
       </c>
       <c r="M25">
-        <v>0.3019152485003076</v>
+        <v>0.2782071315546055</v>
       </c>
       <c r="N25">
-        <v>2.761799525235869</v>
+        <v>1.232115071745678</v>
       </c>
       <c r="O25">
-        <v>6.487156539939463</v>
+        <v>2.989707882073816</v>
       </c>
     </row>
   </sheetData>
